--- a/suivi01/Kit de suivi/Suivi.xlsx
+++ b/suivi01/Kit de suivi/Suivi.xlsx
@@ -82,7 +82,7 @@
     <t>Test et correction</t>
   </si>
   <si>
-    <t>Détection Obstacle</t>
+    <t>Gestion Obstacle</t>
   </si>
   <si>
     <t>Développement</t>
@@ -494,10 +494,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="5">
-        <v>42925.0</v>
+        <v>42962.0</v>
       </c>
       <c r="E12" s="5">
-        <v>42936.0</v>
+        <v>42993.0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
@@ -513,10 +513,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="5">
-        <v>42936.0</v>
+        <v>42993.0</v>
       </c>
       <c r="E13" s="5">
-        <v>42947.0</v>
+        <v>42998.0</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
@@ -536,10 +536,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="5">
-        <v>42979.0</v>
+        <v>42998.0</v>
       </c>
       <c r="E14" s="5">
-        <v>43009.0</v>
+        <v>43028.0</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
@@ -557,10 +557,10 @@
         <v>27</v>
       </c>
       <c r="D15" s="5">
-        <v>42979.0</v>
+        <v>42998.0</v>
       </c>
       <c r="E15" s="5">
-        <v>43009.0</v>
+        <v>43028.0</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
@@ -580,10 +580,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="5">
-        <v>43009.0</v>
+        <v>43028.0</v>
       </c>
       <c r="E16" s="5">
-        <v>43040.0</v>
+        <v>43059.0</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
@@ -601,10 +601,10 @@
         <v>27</v>
       </c>
       <c r="D17" s="5">
-        <v>43009.0</v>
+        <v>43028.0</v>
       </c>
       <c r="E17" s="11">
-        <v>43023.0</v>
+        <v>43033.0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
@@ -622,10 +622,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="11">
-        <v>43023.0</v>
+        <v>43059.0</v>
       </c>
       <c r="E18" s="11">
-        <v>43054.0</v>
+        <v>43079.0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>10</v>
